--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK330"/>
+  <dimension ref="A1:BK338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT3" t="n">
         <v>1.06</v>
@@ -1309,7 +1309,7 @@
         <v>2.47</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT8" t="n">
         <v>1.06</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT13" t="n">
         <v>1.06</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4151,7 +4151,7 @@
         <v>1.29</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT22" t="n">
         <v>1.24</v>
@@ -5166,7 +5166,7 @@
         <v>1.81</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5369,7 +5369,7 @@
         <v>2.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT25" t="n">
         <v>0.47</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT27" t="n">
         <v>1.18</v>
@@ -6181,7 +6181,7 @@
         <v>1.29</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -6790,7 +6790,7 @@
         <v>1.44</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT33" t="n">
         <v>0.82</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7602,7 +7602,7 @@
         <v>1.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT36" t="n">
         <v>0.71</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU37" t="n">
         <v>0.93</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT42" t="n">
         <v>1.18</v>
@@ -9429,7 +9429,7 @@
         <v>1.35</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT45" t="n">
         <v>1.88</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10444,7 +10444,7 @@
         <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10647,7 +10647,7 @@
         <v>1.35</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT52" t="n">
         <v>1.06</v>
@@ -11662,7 +11662,7 @@
         <v>2.47</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT57" t="n">
         <v>0.88</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT59" t="n">
         <v>1.24</v>
@@ -12677,7 +12677,7 @@
         <v>1.29</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU60" t="n">
         <v>2.28</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.35</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT63" t="n">
         <v>1.18</v>
@@ -13489,7 +13489,7 @@
         <v>1.76</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT66" t="n">
         <v>1.18</v>
@@ -14098,7 +14098,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU68" t="n">
         <v>1.12</v>
@@ -14501,10 +14501,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU69" t="n">
         <v>1.87</v>
@@ -14910,7 +14910,7 @@
         <v>2.41</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT73" t="n">
         <v>0.71</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT74" t="n">
         <v>1.88</v>
@@ -15719,7 +15719,7 @@
         <v>2.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT75" t="n">
         <v>1.06</v>
@@ -16128,7 +16128,7 @@
         <v>1.35</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -16328,7 +16328,7 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT82" t="n">
         <v>0.47</v>
@@ -17549,7 +17549,7 @@
         <v>1.81</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18358,7 +18358,7 @@
         <v>0.25</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT88" t="n">
         <v>0.71</v>
@@ -18564,7 +18564,7 @@
         <v>1.35</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU89" t="n">
         <v>1.72</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT90" t="n">
         <v>1.06</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU91" t="n">
         <v>1.84</v>
@@ -19170,10 +19170,10 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19576,10 +19576,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -20388,10 +20388,10 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -21000,7 +21000,7 @@
         <v>1.76</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU101" t="n">
         <v>2.07</v>
@@ -21406,7 +21406,7 @@
         <v>2.41</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21609,7 +21609,7 @@
         <v>1.81</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT106" t="n">
         <v>1.06</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT107" t="n">
         <v>0.47</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -22624,7 +22624,7 @@
         <v>1.35</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU109" t="n">
         <v>1.61</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT110" t="n">
         <v>1.06</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT111" t="n">
         <v>1.5</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT115" t="n">
         <v>1.88</v>
@@ -24042,10 +24042,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24248,7 +24248,7 @@
         <v>2.29</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24451,7 +24451,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24857,7 +24857,7 @@
         <v>1.35</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU122" t="n">
         <v>1.5</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -25669,7 +25669,7 @@
         <v>1.35</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT125" t="n">
         <v>1.06</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT129" t="n">
         <v>0.47</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT130" t="n">
         <v>0.71</v>
@@ -27293,7 +27293,7 @@
         <v>1.06</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27899,10 +27899,10 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU135" t="n">
         <v>1.75</v>
@@ -28308,7 +28308,7 @@
         <v>1.29</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT138" t="n">
         <v>1.06</v>
@@ -29323,7 +29323,7 @@
         <v>2.47</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU142" t="n">
         <v>1.91</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT143" t="n">
         <v>1.06</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT147" t="n">
         <v>0.82</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
         <v>0.71</v>
@@ -30744,7 +30744,7 @@
         <v>1.35</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -31756,7 +31756,7 @@
         <v>1.43</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT154" t="n">
         <v>1.24</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT155" t="n">
         <v>1.18</v>
@@ -32165,7 +32165,7 @@
         <v>1.35</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -32368,7 +32368,7 @@
         <v>2.47</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -32774,7 +32774,7 @@
         <v>1.81</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -32974,7 +32974,7 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT160" t="n">
         <v>1.5</v>
@@ -33177,10 +33177,10 @@
         <v>0.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33583,10 +33583,10 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU163" t="n">
         <v>1.75</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34395,7 +34395,7 @@
         <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT167" t="n">
         <v>1.18</v>
@@ -34598,10 +34598,10 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -35616,7 +35616,7 @@
         <v>1.29</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU173" t="n">
         <v>1.9</v>
@@ -35816,10 +35816,10 @@
         <v>2</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -36019,7 +36019,7 @@
         <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT175" t="n">
         <v>1.5</v>
@@ -36222,10 +36222,10 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU176" t="n">
         <v>1.35</v>
@@ -37643,10 +37643,10 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU183" t="n">
         <v>1.31</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT184" t="n">
         <v>1.06</v>
@@ -38052,7 +38052,7 @@
         <v>1.76</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU185" t="n">
         <v>1.97</v>
@@ -38661,7 +38661,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -38861,10 +38861,10 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39064,10 +39064,10 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -39267,10 +39267,10 @@
         <v>1.11</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU191" t="n">
         <v>1.47</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT193" t="n">
         <v>1.06</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT194" t="n">
         <v>1.5</v>
@@ -40082,7 +40082,7 @@
         <v>2.47</v>
       </c>
       <c r="AT195" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU195" t="n">
         <v>1.84</v>
@@ -40285,7 +40285,7 @@
         <v>1.06</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU196" t="n">
         <v>1.21</v>
@@ -40688,10 +40688,10 @@
         <v>0.78</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU198" t="n">
         <v>1.23</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT199" t="n">
         <v>1.18</v>
@@ -41300,7 +41300,7 @@
         <v>2.41</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU201" t="n">
         <v>1.87</v>
@@ -41503,7 +41503,7 @@
         <v>1.06</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -41703,7 +41703,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT203" t="n">
         <v>1.24</v>
@@ -42518,7 +42518,7 @@
         <v>1.44</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42718,7 +42718,7 @@
         <v>1.11</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT208" t="n">
         <v>0.88</v>
@@ -42921,7 +42921,7 @@
         <v>1.3</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT209" t="n">
         <v>1.88</v>
@@ -43127,7 +43127,7 @@
         <v>2.41</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU210" t="n">
         <v>1.92</v>
@@ -43330,7 +43330,7 @@
         <v>1.29</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU211" t="n">
         <v>1.32</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT212" t="n">
         <v>0.71</v>
@@ -43736,7 +43736,7 @@
         <v>1.81</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU213" t="n">
         <v>1.48</v>
@@ -44139,10 +44139,10 @@
         <v>1.9</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -44342,7 +44342,7 @@
         <v>1</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT216" t="n">
         <v>1.06</v>
@@ -44545,10 +44545,10 @@
         <v>2.67</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT217" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU217" t="n">
         <v>1.73</v>
@@ -45157,7 +45157,7 @@
         <v>1.76</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU220" t="n">
         <v>1.86</v>
@@ -45357,7 +45357,7 @@
         <v>0.73</v>
       </c>
       <c r="AS221" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT221" t="n">
         <v>0.82</v>
@@ -45763,7 +45763,7 @@
         <v>1.1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT223" t="n">
         <v>1.24</v>
@@ -45969,7 +45969,7 @@
         <v>1.06</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU224" t="n">
         <v>1.25</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT225" t="n">
         <v>1.06</v>
@@ -46375,7 +46375,7 @@
         <v>1.29</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU226" t="n">
         <v>1.92</v>
@@ -46575,7 +46575,7 @@
         <v>1.5</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT227" t="n">
         <v>1.18</v>
@@ -46778,7 +46778,7 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT228" t="n">
         <v>0.88</v>
@@ -46981,7 +46981,7 @@
         <v>1.36</v>
       </c>
       <c r="AS229" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT229" t="n">
         <v>1.18</v>
@@ -47187,7 +47187,7 @@
         <v>1.35</v>
       </c>
       <c r="AT230" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU230" t="n">
         <v>1.44</v>
@@ -47390,7 +47390,7 @@
         <v>1.29</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU231" t="n">
         <v>1.38</v>
@@ -47793,7 +47793,7 @@
         <v>1.45</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT233" t="n">
         <v>1.88</v>
@@ -47996,7 +47996,7 @@
         <v>1.27</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT234" t="n">
         <v>1.06</v>
@@ -48202,7 +48202,7 @@
         <v>2.29</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU235" t="n">
         <v>1.33</v>
@@ -48608,7 +48608,7 @@
         <v>2.41</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU237" t="n">
         <v>2</v>
@@ -48808,7 +48808,7 @@
         <v>1</v>
       </c>
       <c r="AS238" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT238" t="n">
         <v>0.71</v>
@@ -49217,7 +49217,7 @@
         <v>1.44</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU240" t="n">
         <v>1.26</v>
@@ -49420,7 +49420,7 @@
         <v>2.29</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU241" t="n">
         <v>1.32</v>
@@ -49623,7 +49623,7 @@
         <v>1.29</v>
       </c>
       <c r="AT242" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU242" t="n">
         <v>1.88</v>
@@ -49823,7 +49823,7 @@
         <v>0.67</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT243" t="n">
         <v>0.82</v>
@@ -50026,10 +50026,10 @@
         <v>1.83</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU244" t="n">
         <v>1.32</v>
@@ -50432,7 +50432,7 @@
         <v>1.17</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT246" t="n">
         <v>1.06</v>
@@ -50841,7 +50841,7 @@
         <v>1.76</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51041,7 +51041,7 @@
         <v>1.17</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT249" t="n">
         <v>1.06</v>
@@ -51450,7 +51450,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU251" t="n">
         <v>1.43</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT252" t="n">
         <v>1.06</v>
@@ -51856,7 +51856,7 @@
         <v>1.29</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU253" t="n">
         <v>1.35</v>
@@ -52056,7 +52056,7 @@
         <v>1.58</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT254" t="n">
         <v>1.88</v>
@@ -52462,7 +52462,7 @@
         <v>0.67</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT256" t="n">
         <v>0.47</v>
@@ -52665,7 +52665,7 @@
         <v>0.83</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT257" t="n">
         <v>1.18</v>
@@ -53074,7 +53074,7 @@
         <v>1.35</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU259" t="n">
         <v>1.49</v>
@@ -53277,7 +53277,7 @@
         <v>1.44</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU260" t="n">
         <v>1.28</v>
@@ -53480,7 +53480,7 @@
         <v>2.29</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU261" t="n">
         <v>1.29</v>
@@ -53680,7 +53680,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT262" t="n">
         <v>1.18</v>
@@ -53883,7 +53883,7 @@
         <v>1.69</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT263" t="n">
         <v>1.88</v>
@@ -54089,7 +54089,7 @@
         <v>2.29</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU264" t="n">
         <v>1.27</v>
@@ -54292,7 +54292,7 @@
         <v>2.41</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU265" t="n">
         <v>2.01</v>
@@ -54698,7 +54698,7 @@
         <v>1.44</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU267" t="n">
         <v>1.35</v>
@@ -55104,7 +55104,7 @@
         <v>1.35</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU269" t="n">
         <v>1.42</v>
@@ -55304,7 +55304,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT270" t="n">
         <v>0.82</v>
@@ -55510,7 +55510,7 @@
         <v>1.29</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU271" t="n">
         <v>1.87</v>
@@ -55710,10 +55710,10 @@
         <v>2.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT272" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU272" t="n">
         <v>1.74</v>
@@ -55916,7 +55916,7 @@
         <v>1.29</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU273" t="n">
         <v>1.45</v>
@@ -56119,7 +56119,7 @@
         <v>1.06</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU274" t="n">
         <v>1.32</v>
@@ -56522,7 +56522,7 @@
         <v>1.31</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT276" t="n">
         <v>1.24</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT277" t="n">
         <v>1.06</v>
@@ -56928,7 +56928,7 @@
         <v>0.85</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT278" t="n">
         <v>1.06</v>
@@ -57131,7 +57131,7 @@
         <v>1</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT279" t="n">
         <v>1.18</v>
@@ -57337,7 +57337,7 @@
         <v>2.47</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU280" t="n">
         <v>1.84</v>
@@ -57537,10 +57537,10 @@
         <v>2.21</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU281" t="n">
         <v>1.84</v>
@@ -57943,10 +57943,10 @@
         <v>1</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU283" t="n">
         <v>1.64</v>
@@ -58146,10 +58146,10 @@
         <v>2</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU284" t="n">
         <v>1.48</v>
@@ -58349,10 +58349,10 @@
         <v>1.36</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU285" t="n">
         <v>1.24</v>
@@ -58755,7 +58755,7 @@
         <v>1.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT287" t="n">
         <v>1.24</v>
@@ -60179,7 +60179,7 @@
         <v>2.41</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU294" t="n">
         <v>2.08</v>
@@ -60382,7 +60382,7 @@
         <v>1.06</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU295" t="n">
         <v>1.34</v>
@@ -60788,7 +60788,7 @@
         <v>2.47</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU297" t="n">
         <v>1.82</v>
@@ -60988,10 +60988,10 @@
         <v>1</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU298" t="n">
         <v>1.4</v>
@@ -61191,7 +61191,7 @@
         <v>0.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT299" t="n">
         <v>0.82</v>
@@ -61394,7 +61394,7 @@
         <v>0.79</v>
       </c>
       <c r="AS300" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT300" t="n">
         <v>0.88</v>
@@ -61600,7 +61600,7 @@
         <v>1.29</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AU301" t="n">
         <v>1.5</v>
@@ -63018,7 +63018,7 @@
         <v>0.53</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT308" t="n">
         <v>0.47</v>
@@ -63830,10 +63830,10 @@
         <v>1.33</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU312" t="n">
         <v>1.62</v>
@@ -64033,7 +64033,7 @@
         <v>0.93</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT313" t="n">
         <v>1.06</v>
@@ -64239,7 +64239,7 @@
         <v>1.81</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU314" t="n">
         <v>1.61</v>
@@ -64439,7 +64439,7 @@
         <v>0.73</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT315" t="n">
         <v>0.88</v>
@@ -64642,10 +64642,10 @@
         <v>2.27</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT316" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AU316" t="n">
         <v>1.24</v>
@@ -64845,7 +64845,7 @@
         <v>1.2</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT317" t="n">
         <v>1.06</v>
@@ -65048,10 +65048,10 @@
         <v>0.93</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU318" t="n">
         <v>1.57</v>
@@ -65251,10 +65251,10 @@
         <v>1.87</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AU319" t="n">
         <v>1.77</v>
@@ -65454,10 +65454,10 @@
         <v>2.07</v>
       </c>
       <c r="AS320" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU320" t="n">
         <v>1.7</v>
@@ -65660,7 +65660,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU321" t="n">
         <v>1.38</v>
@@ -67539,6 +67539,1630 @@
       </c>
       <c r="BK330" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2435527</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F331" t="n">
+        <v>34</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>1</v>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+      <c r="N331" t="n">
+        <v>1</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>3</v>
+      </c>
+      <c r="R331" t="n">
+        <v>13</v>
+      </c>
+      <c r="S331" t="n">
+        <v>16</v>
+      </c>
+      <c r="T331" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V331" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X331" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2435529</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>5</v>
+      </c>
+      <c r="R332" t="n">
+        <v>2</v>
+      </c>
+      <c r="S332" t="n">
+        <v>7</v>
+      </c>
+      <c r="T332" t="n">
+        <v>3</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V332" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2435528</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>1</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>8</v>
+      </c>
+      <c r="R333" t="n">
+        <v>1</v>
+      </c>
+      <c r="S333" t="n">
+        <v>9</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V333" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X333" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2435526</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>4</v>
+      </c>
+      <c r="R334" t="n">
+        <v>2</v>
+      </c>
+      <c r="S334" t="n">
+        <v>6</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V334" t="n">
+        <v>4</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2435530</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>2</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>2</v>
+      </c>
+      <c r="L335" t="n">
+        <v>4</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>4</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['2', '42', '65', '80']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>1</v>
+      </c>
+      <c r="R335" t="n">
+        <v>1</v>
+      </c>
+      <c r="S335" t="n">
+        <v>2</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V335" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X335" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2435524</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>1</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>4</v>
+      </c>
+      <c r="R336" t="n">
+        <v>4</v>
+      </c>
+      <c r="S336" t="n">
+        <v>8</v>
+      </c>
+      <c r="T336" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V336" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X336" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2435523</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F337" t="n">
+        <v>34</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+      <c r="N337" t="n">
+        <v>2</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="n">
+        <v>5</v>
+      </c>
+      <c r="S337" t="n">
+        <v>5</v>
+      </c>
+      <c r="T337" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V337" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X337" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2435525</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>2</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>2</v>
+      </c>
+      <c r="N338" t="n">
+        <v>3</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['41', '48']</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>3</v>
+      </c>
+      <c r="R338" t="n">
+        <v>6</v>
+      </c>
+      <c r="S338" t="n">
+        <v>9</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V338" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X338" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK338"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT5" t="n">
         <v>0.82</v>
@@ -2730,7 +2730,7 @@
         <v>1.76</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.41</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.82</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT19" t="n">
         <v>1.82</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT20" t="n">
         <v>0.71</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT23" t="n">
         <v>0.82</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT31" t="n">
         <v>1.82</v>
@@ -8414,7 +8414,7 @@
         <v>1.29</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>2.25</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -8820,7 +8820,7 @@
         <v>2.47</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT46" t="n">
         <v>1.18</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT49" t="n">
         <v>0.82</v>
@@ -11256,7 +11256,7 @@
         <v>2.41</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU53" t="n">
         <v>1.72</v>
@@ -11459,7 +11459,7 @@
         <v>1.06</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.16</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT56" t="n">
         <v>0.82</v>
@@ -12068,7 +12068,7 @@
         <v>1.82</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT65" t="n">
         <v>0.59</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT67" t="n">
         <v>1.41</v>
@@ -15113,7 +15113,7 @@
         <v>2.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT76" t="n">
         <v>0.47</v>
@@ -16331,7 +16331,7 @@
         <v>1.24</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16737,7 +16737,7 @@
         <v>1.06</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU80" t="n">
         <v>1.12</v>
@@ -17346,7 +17346,7 @@
         <v>2.41</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT84" t="n">
         <v>1.82</v>
@@ -17752,7 +17752,7 @@
         <v>2.29</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT93" t="n">
         <v>1.24</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT95" t="n">
         <v>1.88</v>
@@ -19985,7 +19985,7 @@
         <v>1.06</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT104" t="n">
         <v>1.41</v>
@@ -22827,7 +22827,7 @@
         <v>1.82</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23030,7 +23030,7 @@
         <v>1.41</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU111" t="n">
         <v>1.34</v>
@@ -24448,7 +24448,7 @@
         <v>2.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT118" t="n">
         <v>2.06</v>
@@ -24651,7 +24651,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT119" t="n">
         <v>0.82</v>
@@ -26481,7 +26481,7 @@
         <v>2.41</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -27090,7 +27090,7 @@
         <v>1.35</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT133" t="n">
         <v>1.24</v>
@@ -28511,7 +28511,7 @@
         <v>1.24</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT139" t="n">
         <v>1.18</v>
@@ -28914,7 +28914,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT140" t="n">
         <v>1.88</v>
@@ -30135,7 +30135,7 @@
         <v>1.29</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30944,10 +30944,10 @@
         <v>1.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31350,7 +31350,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT152" t="n">
         <v>0.47</v>
@@ -31556,7 +31556,7 @@
         <v>1.76</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.89</v>
@@ -32771,7 +32771,7 @@
         <v>2.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT159" t="n">
         <v>2.06</v>
@@ -32977,7 +32977,7 @@
         <v>1.24</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU160" t="n">
         <v>1.27</v>
@@ -33383,7 +33383,7 @@
         <v>1.29</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -35207,10 +35207,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.26</v>
@@ -35410,7 +35410,7 @@
         <v>1.25</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT172" t="n">
         <v>1.88</v>
@@ -36022,7 +36022,7 @@
         <v>1.53</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU175" t="n">
         <v>1.77</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT178" t="n">
         <v>1.06</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT188" t="n">
         <v>0.82</v>
@@ -39473,7 +39473,7 @@
         <v>1.29</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
         <v>1.86</v>
@@ -39676,7 +39676,7 @@
         <v>1.53</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU193" t="n">
         <v>1.72</v>
@@ -39879,7 +39879,7 @@
         <v>1.82</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU194" t="n">
         <v>1.53</v>
@@ -40485,7 +40485,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT197" t="n">
         <v>0.71</v>
@@ -42515,7 +42515,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT207" t="n">
         <v>1.82</v>
@@ -42721,7 +42721,7 @@
         <v>1.47</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU208" t="n">
         <v>1.44</v>
@@ -43733,7 +43733,7 @@
         <v>1.3</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT213" t="n">
         <v>0.82</v>
@@ -43939,7 +43939,7 @@
         <v>1.35</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU214" t="n">
         <v>1.46</v>
@@ -44345,7 +44345,7 @@
         <v>1.41</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU216" t="n">
         <v>1.46</v>
@@ -44748,10 +44748,10 @@
         <v>1.45</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU218" t="n">
         <v>1.24</v>
@@ -44951,7 +44951,7 @@
         <v>0.9</v>
       </c>
       <c r="AS219" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT219" t="n">
         <v>1.18</v>
@@ -46781,7 +46781,7 @@
         <v>1.41</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU228" t="n">
         <v>1.68</v>
@@ -47593,7 +47593,7 @@
         <v>1.35</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU232" t="n">
         <v>1.45</v>
@@ -48402,7 +48402,7 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT236" t="n">
         <v>1.18</v>
@@ -49011,7 +49011,7 @@
         <v>1.27</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT239" t="n">
         <v>1.24</v>
@@ -49214,7 +49214,7 @@
         <v>1.09</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT240" t="n">
         <v>1.41</v>
@@ -50232,7 +50232,7 @@
         <v>2.47</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU245" t="n">
         <v>1.87</v>
@@ -51247,7 +51247,7 @@
         <v>1.35</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU250" t="n">
         <v>1.37</v>
@@ -51447,7 +51447,7 @@
         <v>1.17</v>
       </c>
       <c r="AS251" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT251" t="n">
         <v>1.35</v>
@@ -51653,7 +51653,7 @@
         <v>2.06</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU252" t="n">
         <v>1.75</v>
@@ -52868,7 +52868,7 @@
         <v>0.92</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT258" t="n">
         <v>0.71</v>
@@ -53274,7 +53274,7 @@
         <v>1.08</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT260" t="n">
         <v>0.82</v>
@@ -54492,7 +54492,7 @@
         <v>1.08</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT266" t="n">
         <v>1.06</v>
@@ -54695,7 +54695,7 @@
         <v>1.08</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT267" t="n">
         <v>1.35</v>
@@ -54901,7 +54901,7 @@
         <v>1.76</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU268" t="n">
         <v>1.83</v>
@@ -56319,10 +56319,10 @@
         <v>0.85</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU275" t="n">
         <v>1.58</v>
@@ -56931,7 +56931,7 @@
         <v>1.82</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU278" t="n">
         <v>1.19</v>
@@ -57740,7 +57740,7 @@
         <v>1.07</v>
       </c>
       <c r="AS282" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT282" t="n">
         <v>1.06</v>
@@ -58552,10 +58552,10 @@
         <v>0.79</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU286" t="n">
         <v>1.62</v>
@@ -59164,7 +59164,7 @@
         <v>1.29</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU289" t="n">
         <v>1.79</v>
@@ -59364,7 +59364,7 @@
         <v>1.14</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT290" t="n">
         <v>1.18</v>
@@ -61397,7 +61397,7 @@
         <v>2.06</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU300" t="n">
         <v>1.75</v>
@@ -62818,7 +62818,7 @@
         <v>1.35</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU307" t="n">
         <v>1.47</v>
@@ -63627,7 +63627,7 @@
         <v>1.2</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT311" t="n">
         <v>1.06</v>
@@ -64036,7 +64036,7 @@
         <v>1.47</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU313" t="n">
         <v>1.42</v>
@@ -64236,7 +64236,7 @@
         <v>0.47</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AT314" t="n">
         <v>0.59</v>
@@ -64442,7 +64442,7 @@
         <v>1.41</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU315" t="n">
         <v>1.44</v>
@@ -65657,7 +65657,7 @@
         <v>0.93</v>
       </c>
       <c r="AS321" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT321" t="n">
         <v>0.82</v>
@@ -69163,6 +69163,615 @@
       </c>
       <c r="BK338" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2435531</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45040.625</v>
+      </c>
+      <c r="F339" t="n">
+        <v>34</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>1</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>7</v>
+      </c>
+      <c r="R339" t="n">
+        <v>10</v>
+      </c>
+      <c r="S339" t="n">
+        <v>17</v>
+      </c>
+      <c r="T339" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X339" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2435532</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45040.625</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>5</v>
+      </c>
+      <c r="R340" t="n">
+        <v>6</v>
+      </c>
+      <c r="S340" t="n">
+        <v>11</v>
+      </c>
+      <c r="T340" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V340" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X340" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2435516</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45041.39583333334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>33</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
+      </c>
+      <c r="N341" t="n">
+        <v>2</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>6</v>
+      </c>
+      <c r="R341" t="n">
+        <v>5</v>
+      </c>
+      <c r="S341" t="n">
+        <v>11</v>
+      </c>
+      <c r="T341" t="n">
+        <v>4</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V341" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -69759,19 +69759,19 @@
         <v>4</v>
       </c>
       <c r="BG341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH341" t="n">
         <v>4</v>
       </c>
-      <c r="BH341" t="n">
+      <c r="BI341" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK341" t="n">
         <v>7</v>
-      </c>
-      <c r="BI341" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ341" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK341" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK349"/>
+  <dimension ref="A1:BK351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.24</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT5" t="n">
         <v>0.83</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>2.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT23" t="n">
         <v>0.82</v>
@@ -5775,7 +5775,7 @@
         <v>1.28</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.76</v>
@@ -6384,7 +6384,7 @@
         <v>1.35</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU29" t="n">
         <v>1.2</v>
@@ -9023,7 +9023,7 @@
         <v>1.47</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU42" t="n">
         <v>1.01</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT46" t="n">
         <v>1.18</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT47" t="n">
         <v>1.41</v>
@@ -10241,7 +10241,7 @@
         <v>2.17</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.69</v>
@@ -13895,7 +13895,7 @@
         <v>1.41</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU66" t="n">
         <v>1.63</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT69" t="n">
         <v>0.9399999999999999</v>
@@ -15722,7 +15722,7 @@
         <v>1.89</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.31</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT76" t="n">
         <v>0.44</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT84" t="n">
         <v>1.82</v>
@@ -18767,7 +18767,7 @@
         <v>1.82</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT94" t="n">
         <v>0.59</v>
@@ -20797,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU100" t="n">
         <v>1.97</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT104" t="n">
         <v>1.41</v>
@@ -22015,7 +22015,7 @@
         <v>1.47</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.35</v>
@@ -23233,7 +23233,7 @@
         <v>1.28</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU112" t="n">
         <v>2.1</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.33</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT115" t="n">
         <v>1.94</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT133" t="n">
         <v>1.33</v>
@@ -27899,7 +27899,7 @@
         <v>1.71</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT135" t="n">
         <v>1.82</v>
@@ -28105,7 +28105,7 @@
         <v>1.28</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU136" t="n">
         <v>1.56</v>
@@ -29120,7 +29120,7 @@
         <v>1.76</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.92</v>
@@ -31150,7 +31150,7 @@
         <v>1.28</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31962,7 +31962,7 @@
         <v>1.41</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU155" t="n">
         <v>1.29</v>
@@ -32771,7 +32771,7 @@
         <v>2.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT159" t="n">
         <v>2.06</v>
@@ -33177,7 +33177,7 @@
         <v>0.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT161" t="n">
         <v>1.35</v>
@@ -35410,7 +35410,7 @@
         <v>1.25</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT172" t="n">
         <v>1.94</v>
@@ -36628,7 +36628,7 @@
         <v>1.22</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>2.17</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU180" t="n">
         <v>1.38</v>
@@ -37846,10 +37846,10 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.78</v>
@@ -40894,7 +40894,7 @@
         <v>1.82</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU199" t="n">
         <v>1.56</v>
@@ -42315,7 +42315,7 @@
         <v>1.35</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -43733,7 +43733,7 @@
         <v>1.3</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT213" t="n">
         <v>0.9399999999999999</v>
@@ -44954,7 +44954,7 @@
         <v>1.06</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU219" t="n">
         <v>1.5</v>
@@ -45357,7 +45357,7 @@
         <v>0.73</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT221" t="n">
         <v>0.83</v>
@@ -46981,7 +46981,7 @@
         <v>1.36</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT229" t="n">
         <v>1.18</v>
@@ -47999,7 +47999,7 @@
         <v>1.41</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU234" t="n">
         <v>1.51</v>
@@ -48402,10 +48402,10 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU236" t="n">
         <v>1.58</v>
@@ -48808,7 +48808,7 @@
         <v>1</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT238" t="n">
         <v>0.67</v>
@@ -51044,7 +51044,7 @@
         <v>1.53</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU249" t="n">
         <v>1.88</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT252" t="n">
         <v>1.11</v>
@@ -52668,7 +52668,7 @@
         <v>1.89</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU257" t="n">
         <v>1.17</v>
@@ -52868,7 +52868,7 @@
         <v>0.92</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT258" t="n">
         <v>0.67</v>
@@ -54495,7 +54495,7 @@
         <v>1.06</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU266" t="n">
         <v>1.46</v>
@@ -55710,7 +55710,7 @@
         <v>2.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT272" t="n">
         <v>2.06</v>
@@ -56319,7 +56319,7 @@
         <v>0.85</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT275" t="n">
         <v>1</v>
@@ -57134,7 +57134,7 @@
         <v>1.24</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU279" t="n">
         <v>1.28</v>
@@ -58552,7 +58552,7 @@
         <v>0.79</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT286" t="n">
         <v>1.11</v>
@@ -59367,7 +59367,7 @@
         <v>1.35</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU290" t="n">
         <v>1.36</v>
@@ -60585,7 +60585,7 @@
         <v>1.22</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU296" t="n">
         <v>1.49</v>
@@ -61394,7 +61394,7 @@
         <v>0.79</v>
       </c>
       <c r="AS300" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT300" t="n">
         <v>1</v>
@@ -63427,7 +63427,7 @@
         <v>1.76</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU310" t="n">
         <v>1.77</v>
@@ -63630,7 +63630,7 @@
         <v>1.35</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU311" t="n">
         <v>1.39</v>
@@ -64236,7 +64236,7 @@
         <v>0.47</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT314" t="n">
         <v>0.59</v>
@@ -65454,7 +65454,7 @@
         <v>2.07</v>
       </c>
       <c r="AS320" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT320" t="n">
         <v>1.82</v>
@@ -66066,7 +66066,7 @@
         <v>2.5</v>
       </c>
       <c r="AT323" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU323" t="n">
         <v>1.83</v>
@@ -66675,7 +66675,7 @@
         <v>1</v>
       </c>
       <c r="AT326" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU326" t="n">
         <v>1.28</v>
@@ -68499,7 +68499,7 @@
         <v>0.88</v>
       </c>
       <c r="AS335" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT335" t="n">
         <v>0.82</v>
@@ -69717,7 +69717,7 @@
         <v>1.5</v>
       </c>
       <c r="AS341" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT341" t="n">
         <v>1.47</v>
@@ -71396,6 +71396,412 @@
       </c>
       <c r="BK349" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2435542</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45045.57291666666</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>3</v>
+      </c>
+      <c r="J350" t="n">
+        <v>1</v>
+      </c>
+      <c r="K350" t="n">
+        <v>4</v>
+      </c>
+      <c r="L350" t="n">
+        <v>4</v>
+      </c>
+      <c r="M350" t="n">
+        <v>2</v>
+      </c>
+      <c r="N350" t="n">
+        <v>6</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>['12', '23', '41', '90+4']</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>['35', '81']</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>1</v>
+      </c>
+      <c r="R350" t="n">
+        <v>3</v>
+      </c>
+      <c r="S350" t="n">
+        <v>4</v>
+      </c>
+      <c r="T350" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V350" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2435541</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>1</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>1</v>
+      </c>
+      <c r="L351" t="n">
+        <v>3</v>
+      </c>
+      <c r="M351" t="n">
+        <v>2</v>
+      </c>
+      <c r="N351" t="n">
+        <v>5</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>['35', '68', '71']</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>['54', '57']</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>4</v>
+      </c>
+      <c r="R351" t="n">
+        <v>2</v>
+      </c>
+      <c r="S351" t="n">
+        <v>6</v>
+      </c>
+      <c r="T351" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U351" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V351" t="n">
+        <v>4</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X351" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.28</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1.76</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT12" t="n">
         <v>2.06</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.11</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT14" t="n">
         <v>0.9399999999999999</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.89</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.06</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT25" t="n">
         <v>0.44</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6790,7 +6790,7 @@
         <v>1.35</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU31" t="n">
         <v>1.4</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT33" t="n">
         <v>0.83</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1.35</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT36" t="n">
         <v>0.67</v>
@@ -8617,7 +8617,7 @@
         <v>1.06</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -8820,7 +8820,7 @@
         <v>2.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT42" t="n">
         <v>1.11</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT45" t="n">
         <v>1.94</v>
@@ -9835,7 +9835,7 @@
         <v>1.83</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10647,7 +10647,7 @@
         <v>1.35</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU50" t="n">
         <v>1.33</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>2.44</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU53" t="n">
         <v>1.72</v>
@@ -11662,7 +11662,7 @@
         <v>2.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -12068,7 +12068,7 @@
         <v>1.89</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT58" t="n">
         <v>0.59</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT61" t="n">
         <v>1.35</v>
@@ -13286,7 +13286,7 @@
         <v>1.82</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT66" t="n">
         <v>1.11</v>
@@ -14298,10 +14298,10 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU68" t="n">
         <v>1.12</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT73" t="n">
         <v>0.67</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT74" t="n">
         <v>1.94</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU80" t="n">
         <v>1.12</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT82" t="n">
         <v>0.44</v>
@@ -17549,7 +17549,7 @@
         <v>1.83</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -17752,7 +17752,7 @@
         <v>2.17</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -17952,7 +17952,7 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT86" t="n">
         <v>0.82</v>
@@ -18564,7 +18564,7 @@
         <v>1.28</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU89" t="n">
         <v>1.72</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT91" t="n">
         <v>0.9399999999999999</v>
@@ -19170,10 +19170,10 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -20188,7 +20188,7 @@
         <v>1.28</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU97" t="n">
         <v>2.26</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT98" t="n">
         <v>2.06</v>
@@ -21406,7 +21406,7 @@
         <v>2.44</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT107" t="n">
         <v>0.44</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU111" t="n">
         <v>1.34</v>
@@ -23436,7 +23436,7 @@
         <v>2.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT116" t="n">
         <v>1.35</v>
@@ -24857,7 +24857,7 @@
         <v>1.35</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25466,7 +25466,7 @@
         <v>1.82</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU123" t="n">
         <v>1.52</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT126" t="n">
         <v>0.82</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT127" t="n">
         <v>1.41</v>
@@ -26481,7 +26481,7 @@
         <v>2.44</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT129" t="n">
         <v>0.44</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT130" t="n">
         <v>0.67</v>
@@ -27090,7 +27090,7 @@
         <v>1.35</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27902,7 +27902,7 @@
         <v>2.11</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU135" t="n">
         <v>1.75</v>
@@ -28308,7 +28308,7 @@
         <v>1.28</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT138" t="n">
         <v>1.11</v>
@@ -28714,7 +28714,7 @@
         <v>1.06</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -29729,7 +29729,7 @@
         <v>2.44</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT145" t="n">
         <v>1.41</v>
@@ -30135,7 +30135,7 @@
         <v>1.22</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT147" t="n">
         <v>0.83</v>
@@ -30947,7 +30947,7 @@
         <v>1.06</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT155" t="n">
         <v>1.11</v>
@@ -32165,7 +32165,7 @@
         <v>1.28</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -32974,10 +32974,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU160" t="n">
         <v>1.27</v>
@@ -33383,7 +33383,7 @@
         <v>1.22</v>
       </c>
       <c r="AT162" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33583,10 +33583,10 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU163" t="n">
         <v>1.75</v>
@@ -34395,10 +34395,10 @@
         <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU167" t="n">
         <v>1.85</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT168" t="n">
         <v>0.59</v>
@@ -35819,7 +35819,7 @@
         <v>1.89</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -36019,10 +36019,10 @@
         <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU175" t="n">
         <v>1.77</v>
@@ -36222,7 +36222,7 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT176" t="n">
         <v>0.59</v>
@@ -37643,7 +37643,7 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT183" t="n">
         <v>1.41</v>
@@ -38052,7 +38052,7 @@
         <v>1.76</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU185" t="n">
         <v>1.97</v>
@@ -38255,7 +38255,7 @@
         <v>1.35</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38861,7 +38861,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT189" t="n">
         <v>0.9399999999999999</v>
@@ -39064,7 +39064,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT190" t="n">
         <v>0.82</v>
@@ -39267,7 +39267,7 @@
         <v>1.11</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT191" t="n">
         <v>1.35</v>
@@ -39473,7 +39473,7 @@
         <v>1.28</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU192" t="n">
         <v>1.86</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT193" t="n">
         <v>1.11</v>
@@ -39879,7 +39879,7 @@
         <v>1.82</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU194" t="n">
         <v>1.53</v>
@@ -41300,7 +41300,7 @@
         <v>2.44</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU201" t="n">
         <v>1.87</v>
@@ -41703,7 +41703,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT203" t="n">
         <v>1.33</v>
@@ -42518,7 +42518,7 @@
         <v>1.35</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42718,10 +42718,10 @@
         <v>1.11</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT208" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU208" t="n">
         <v>1.44</v>
@@ -42921,7 +42921,7 @@
         <v>1.3</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT209" t="n">
         <v>1.94</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT212" t="n">
         <v>0.67</v>
@@ -43939,7 +43939,7 @@
         <v>1.28</v>
       </c>
       <c r="AT214" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU214" t="n">
         <v>1.46</v>
@@ -44142,7 +44142,7 @@
         <v>1.89</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -44342,7 +44342,7 @@
         <v>1</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT216" t="n">
         <v>1.11</v>
@@ -44545,7 +44545,7 @@
         <v>2.67</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT217" t="n">
         <v>2.06</v>
@@ -44751,7 +44751,7 @@
         <v>1.35</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU218" t="n">
         <v>1.24</v>
@@ -45157,7 +45157,7 @@
         <v>1.76</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU220" t="n">
         <v>1.86</v>
@@ -45763,7 +45763,7 @@
         <v>1.1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT223" t="n">
         <v>1.33</v>
@@ -46575,10 +46575,10 @@
         <v>1.5</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU227" t="n">
         <v>1.28</v>
@@ -46778,10 +46778,10 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT228" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU228" t="n">
         <v>1.68</v>
@@ -46984,7 +46984,7 @@
         <v>2.11</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU229" t="n">
         <v>1.74</v>
@@ -47390,7 +47390,7 @@
         <v>1.22</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU231" t="n">
         <v>1.38</v>
@@ -47996,7 +47996,7 @@
         <v>1.27</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT234" t="n">
         <v>1</v>
@@ -49420,7 +49420,7 @@
         <v>2.17</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU241" t="n">
         <v>1.32</v>
@@ -50026,10 +50026,10 @@
         <v>1.83</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU244" t="n">
         <v>1.32</v>
@@ -50232,7 +50232,7 @@
         <v>2.5</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU245" t="n">
         <v>1.87</v>
@@ -50432,7 +50432,7 @@
         <v>1.17</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT246" t="n">
         <v>1</v>
@@ -50638,7 +50638,7 @@
         <v>1</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU247" t="n">
         <v>1.31</v>
@@ -51041,7 +51041,7 @@
         <v>1.17</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT249" t="n">
         <v>1</v>
@@ -51247,7 +51247,7 @@
         <v>1.35</v>
       </c>
       <c r="AT250" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU250" t="n">
         <v>1.37</v>
@@ -52056,7 +52056,7 @@
         <v>1.58</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT254" t="n">
         <v>1.94</v>
@@ -52462,7 +52462,7 @@
         <v>0.67</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT256" t="n">
         <v>0.44</v>
@@ -53680,10 +53680,10 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU262" t="n">
         <v>1.41</v>
@@ -53883,7 +53883,7 @@
         <v>1.69</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT263" t="n">
         <v>1.94</v>
@@ -54089,7 +54089,7 @@
         <v>2.17</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU264" t="n">
         <v>1.27</v>
@@ -54901,7 +54901,7 @@
         <v>1.76</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU268" t="n">
         <v>1.83</v>
@@ -55304,7 +55304,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT270" t="n">
         <v>0.83</v>
@@ -55510,7 +55510,7 @@
         <v>1.28</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU271" t="n">
         <v>1.87</v>
@@ -56322,7 +56322,7 @@
         <v>1.83</v>
       </c>
       <c r="AT275" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU275" t="n">
         <v>1.58</v>
@@ -56522,7 +56522,7 @@
         <v>1.31</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT276" t="n">
         <v>1.33</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT277" t="n">
         <v>1</v>
@@ -57131,7 +57131,7 @@
         <v>1</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT279" t="n">
         <v>1.11</v>
@@ -57537,7 +57537,7 @@
         <v>2.21</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT281" t="n">
         <v>2.06</v>
@@ -57943,7 +57943,7 @@
         <v>1</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT283" t="n">
         <v>0.9399999999999999</v>
@@ -58149,7 +58149,7 @@
         <v>1.82</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU284" t="n">
         <v>1.48</v>
@@ -58755,7 +58755,7 @@
         <v>1.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT287" t="n">
         <v>1.33</v>
@@ -59164,7 +59164,7 @@
         <v>1.28</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU289" t="n">
         <v>1.79</v>
@@ -59976,7 +59976,7 @@
         <v>1.76</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU293" t="n">
         <v>1.83</v>
@@ -60382,7 +60382,7 @@
         <v>1</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU295" t="n">
         <v>1.34</v>
@@ -60988,7 +60988,7 @@
         <v>1</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT298" t="n">
         <v>0.82</v>
@@ -61191,7 +61191,7 @@
         <v>0.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT299" t="n">
         <v>0.83</v>
@@ -61397,7 +61397,7 @@
         <v>2.11</v>
       </c>
       <c r="AT300" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU300" t="n">
         <v>1.75</v>
@@ -62006,7 +62006,7 @@
         <v>2.17</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU303" t="n">
         <v>1.3</v>
@@ -62818,7 +62818,7 @@
         <v>1.28</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU307" t="n">
         <v>1.47</v>
@@ -63830,7 +63830,7 @@
         <v>1.33</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT312" t="n">
         <v>1.41</v>
@@ -64033,7 +64033,7 @@
         <v>0.93</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT313" t="n">
         <v>1.11</v>
@@ -64439,10 +64439,10 @@
         <v>0.73</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT315" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU315" t="n">
         <v>1.44</v>
@@ -64845,7 +64845,7 @@
         <v>1.2</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT317" t="n">
         <v>1</v>
@@ -65251,10 +65251,10 @@
         <v>1.87</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU319" t="n">
         <v>1.77</v>
@@ -65457,7 +65457,7 @@
         <v>2.11</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU320" t="n">
         <v>1.7</v>
@@ -66878,7 +66878,7 @@
         <v>1.22</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU327" t="n">
         <v>1.5</v>
@@ -67687,10 +67687,10 @@
         <v>1.75</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AU331" t="n">
         <v>1.41</v>
@@ -67890,10 +67890,10 @@
         <v>1.94</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AU332" t="n">
         <v>1.48</v>
@@ -68093,7 +68093,7 @@
         <v>0.44</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT333" t="n">
         <v>0.59</v>
@@ -68296,7 +68296,7 @@
         <v>1.31</v>
       </c>
       <c r="AS334" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT334" t="n">
         <v>1.41</v>
@@ -68702,7 +68702,7 @@
         <v>0.88</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AT336" t="n">
         <v>0.9399999999999999</v>
@@ -69314,7 +69314,7 @@
         <v>1.35</v>
       </c>
       <c r="AT339" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU339" t="n">
         <v>1.42</v>
@@ -69720,7 +69720,7 @@
         <v>1.83</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU341" t="n">
         <v>1.66</v>
@@ -71802,6 +71802,1021 @@
       </c>
       <c r="BK351" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2435544</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1</v>
+      </c>
+      <c r="K352" t="n">
+        <v>2</v>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="n">
+        <v>3</v>
+      </c>
+      <c r="N352" t="n">
+        <v>4</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>['23', '64', '73']</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>2</v>
+      </c>
+      <c r="R352" t="n">
+        <v>6</v>
+      </c>
+      <c r="S352" t="n">
+        <v>8</v>
+      </c>
+      <c r="T352" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V352" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X352" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2435545</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>1</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1</v>
+      </c>
+      <c r="K353" t="n">
+        <v>2</v>
+      </c>
+      <c r="L353" t="n">
+        <v>2</v>
+      </c>
+      <c r="M353" t="n">
+        <v>1</v>
+      </c>
+      <c r="N353" t="n">
+        <v>3</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>['29', '90']</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>5</v>
+      </c>
+      <c r="R353" t="n">
+        <v>3</v>
+      </c>
+      <c r="S353" t="n">
+        <v>8</v>
+      </c>
+      <c r="T353" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V353" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X353" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2435546</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+      <c r="N354" t="n">
+        <v>2</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>9</v>
+      </c>
+      <c r="R354" t="n">
+        <v>2</v>
+      </c>
+      <c r="S354" t="n">
+        <v>11</v>
+      </c>
+      <c r="T354" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V354" t="n">
+        <v>3</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X354" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2435547</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="n">
+        <v>2</v>
+      </c>
+      <c r="N355" t="n">
+        <v>3</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>['51', '86']</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>8</v>
+      </c>
+      <c r="R355" t="n">
+        <v>2</v>
+      </c>
+      <c r="S355" t="n">
+        <v>10</v>
+      </c>
+      <c r="T355" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V355" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X355" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2435548</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>7</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
+      <c r="S356" t="n">
+        <v>7</v>
+      </c>
+      <c r="T356" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V356" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X356" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK356"/>
+  <dimension ref="A1:BK357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT15" t="n">
         <v>0.82</v>
@@ -4760,7 +4760,7 @@
         <v>2.17</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT38" t="n">
         <v>0.59</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -12880,7 +12880,7 @@
         <v>1.61</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.35</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT63" t="n">
         <v>1.28</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>1.76</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU101" t="n">
         <v>2.07</v>
@@ -22824,7 +22824,7 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT110" t="n">
         <v>1.11</v>
@@ -24045,7 +24045,7 @@
         <v>1.17</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT123" t="n">
         <v>1.89</v>
@@ -25669,7 +25669,7 @@
         <v>1.28</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -29323,7 +29323,7 @@
         <v>2.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU142" t="n">
         <v>1.91</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT148" t="n">
         <v>0.67</v>
@@ -33180,7 +33180,7 @@
         <v>2.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT165" t="n">
         <v>1.41</v>
@@ -39270,7 +39270,7 @@
         <v>1.39</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU191" t="n">
         <v>1.47</v>
@@ -39876,7 +39876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT194" t="n">
         <v>1.44</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT199" t="n">
         <v>1.11</v>
@@ -41503,7 +41503,7 @@
         <v>1</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT225" t="n">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>1.28</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU226" t="n">
         <v>1.92</v>
@@ -49823,7 +49823,7 @@
         <v>0.67</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT243" t="n">
         <v>0.83</v>
@@ -51450,7 +51450,7 @@
         <v>1.06</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU251" t="n">
         <v>1.43</v>
@@ -54698,7 +54698,7 @@
         <v>1.35</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU267" t="n">
         <v>1.35</v>
@@ -58146,7 +58146,7 @@
         <v>2</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT284" t="n">
         <v>1.78</v>
@@ -60179,7 +60179,7 @@
         <v>2.44</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU294" t="n">
         <v>2.08</v>
@@ -61600,7 +61600,7 @@
         <v>1.22</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU301" t="n">
         <v>1.5</v>
@@ -63018,7 +63018,7 @@
         <v>0.53</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT308" t="n">
         <v>0.44</v>
@@ -65048,7 +65048,7 @@
         <v>0.93</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT318" t="n">
         <v>0.9399999999999999</v>
@@ -68905,7 +68905,7 @@
         <v>2.13</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT337" t="n">
         <v>2.06</v>
@@ -69111,7 +69111,7 @@
         <v>1.89</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AU338" t="n">
         <v>1.25</v>
@@ -72816,6 +72816,209 @@
         <v>10</v>
       </c>
       <c r="BK356" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2435543</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45053.30208333334</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>2</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>2</v>
+      </c>
+      <c r="N357" t="n">
+        <v>2</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['30', '35']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>3</v>
+      </c>
+      <c r="R357" t="n">
+        <v>6</v>
+      </c>
+      <c r="S357" t="n">
+        <v>9</v>
+      </c>
+      <c r="T357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V357" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X357" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK357" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK357"/>
+  <dimension ref="A1:BK361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT11" t="n">
         <v>0.9399999999999999</v>
@@ -2933,7 +2933,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.72</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.28</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT20" t="n">
         <v>0.67</v>
@@ -5166,7 +5166,7 @@
         <v>1.83</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5369,7 +5369,7 @@
         <v>2.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -6181,7 +6181,7 @@
         <v>1.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT29" t="n">
         <v>1.11</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT30" t="n">
         <v>1.94</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT31" t="n">
         <v>1.89</v>
@@ -8211,7 +8211,7 @@
         <v>1.72</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -9429,7 +9429,7 @@
         <v>1.28</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -10038,7 +10038,7 @@
         <v>2.11</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT50" t="n">
         <v>1.89</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT51" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>1.17</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
         <v>1.44</v>
@@ -13486,10 +13486,10 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -14098,7 +14098,7 @@
         <v>1.06</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14910,7 +14910,7 @@
         <v>2.44</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -16128,7 +16128,7 @@
         <v>1.28</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -17955,7 +17955,7 @@
         <v>1.39</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT93" t="n">
         <v>1.33</v>
@@ -19579,7 +19579,7 @@
         <v>2.11</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -20391,7 +20391,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT99" t="n">
         <v>0.83</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT101" t="n">
         <v>1.44</v>
@@ -21609,7 +21609,7 @@
         <v>1.83</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22421,7 +22421,7 @@
         <v>1.89</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -24248,7 +24248,7 @@
         <v>2.17</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24451,7 +24451,7 @@
         <v>1.06</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24651,7 +24651,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT119" t="n">
         <v>0.83</v>
@@ -24854,7 +24854,7 @@
         <v>1.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT120" t="n">
         <v>1.78</v>
@@ -25057,7 +25057,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -26075,7 +26075,7 @@
         <v>1.61</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26278,7 +26278,7 @@
         <v>1.39</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT131" t="n">
         <v>1.44</v>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -28914,7 +28914,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT140" t="n">
         <v>1.94</v>
@@ -29117,7 +29117,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT141" t="n">
         <v>1</v>
@@ -29932,7 +29932,7 @@
         <v>1.44</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30741,10 +30741,10 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -31350,7 +31350,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT152" t="n">
         <v>0.44</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT153" t="n">
         <v>1.11</v>
@@ -32368,7 +32368,7 @@
         <v>2.5</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -32774,7 +32774,7 @@
         <v>1.83</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -33992,7 +33992,7 @@
         <v>1.72</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34192,7 +34192,7 @@
         <v>0.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT166" t="n">
         <v>0.44</v>
@@ -34601,7 +34601,7 @@
         <v>1.44</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35207,7 +35207,7 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT171" t="n">
         <v>1.11</v>
@@ -35616,7 +35616,7 @@
         <v>1.28</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU173" t="n">
         <v>1.9</v>
@@ -36225,7 +36225,7 @@
         <v>1.39</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU176" t="n">
         <v>1.35</v>
@@ -37646,7 +37646,7 @@
         <v>1.17</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU183" t="n">
         <v>1.31</v>
@@ -38049,7 +38049,7 @@
         <v>2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT185" t="n">
         <v>1.89</v>
@@ -38252,7 +38252,7 @@
         <v>1.56</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT186" t="n">
         <v>1.28</v>
@@ -39067,7 +39067,7 @@
         <v>1.33</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -40082,7 +40082,7 @@
         <v>2.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU195" t="n">
         <v>1.84</v>
@@ -40691,7 +40691,7 @@
         <v>1.89</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU198" t="n">
         <v>1.23</v>
@@ -42109,7 +42109,7 @@
         <v>0.7</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT205" t="n">
         <v>0.83</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT206" t="n">
         <v>1</v>
@@ -42515,7 +42515,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT207" t="n">
         <v>1.78</v>
@@ -43127,7 +43127,7 @@
         <v>2.44</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU210" t="n">
         <v>1.92</v>
@@ -43330,7 +43330,7 @@
         <v>1.22</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU211" t="n">
         <v>1.32</v>
@@ -44548,7 +44548,7 @@
         <v>1.33</v>
       </c>
       <c r="AT217" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU217" t="n">
         <v>1.73</v>
@@ -44748,7 +44748,7 @@
         <v>1.45</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT218" t="n">
         <v>1.44</v>
@@ -45154,7 +45154,7 @@
         <v>2</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT220" t="n">
         <v>1.78</v>
@@ -45969,7 +45969,7 @@
         <v>1</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU224" t="n">
         <v>1.25</v>
@@ -47184,10 +47184,10 @@
         <v>2.7</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT230" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU230" t="n">
         <v>1.44</v>
@@ -48202,7 +48202,7 @@
         <v>2.17</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU235" t="n">
         <v>1.33</v>
@@ -49214,10 +49214,10 @@
         <v>1.09</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU240" t="n">
         <v>1.26</v>
@@ -49623,7 +49623,7 @@
         <v>1.28</v>
       </c>
       <c r="AT242" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU242" t="n">
         <v>1.88</v>
@@ -50838,10 +50838,10 @@
         <v>0.64</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51244,7 +51244,7 @@
         <v>0.92</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT250" t="n">
         <v>0.9399999999999999</v>
@@ -51856,7 +51856,7 @@
         <v>1.22</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU253" t="n">
         <v>1.35</v>
@@ -53074,7 +53074,7 @@
         <v>1.28</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU259" t="n">
         <v>1.49</v>
@@ -53274,7 +53274,7 @@
         <v>1.08</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT260" t="n">
         <v>0.9399999999999999</v>
@@ -53480,7 +53480,7 @@
         <v>2.17</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU261" t="n">
         <v>1.29</v>
@@ -54292,7 +54292,7 @@
         <v>2.44</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU265" t="n">
         <v>2.01</v>
@@ -54695,7 +54695,7 @@
         <v>1.08</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT267" t="n">
         <v>1.44</v>
@@ -54898,7 +54898,7 @@
         <v>1.31</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT268" t="n">
         <v>1.44</v>
@@ -55101,10 +55101,10 @@
         <v>0.85</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU269" t="n">
         <v>1.42</v>
@@ -55713,7 +55713,7 @@
         <v>2.11</v>
       </c>
       <c r="AT272" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU272" t="n">
         <v>1.74</v>
@@ -55916,7 +55916,7 @@
         <v>1.22</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU273" t="n">
         <v>1.45</v>
@@ -56119,7 +56119,7 @@
         <v>1</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU274" t="n">
         <v>1.32</v>
@@ -57540,7 +57540,7 @@
         <v>1.61</v>
       </c>
       <c r="AT281" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU281" t="n">
         <v>1.84</v>
@@ -58352,7 +58352,7 @@
         <v>1.89</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU285" t="n">
         <v>1.24</v>
@@ -59364,7 +59364,7 @@
         <v>1.14</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT290" t="n">
         <v>1.11</v>
@@ -59770,7 +59770,7 @@
         <v>1.79</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT292" t="n">
         <v>1.94</v>
@@ -59973,7 +59973,7 @@
         <v>1.29</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT293" t="n">
         <v>1.28</v>
@@ -60788,7 +60788,7 @@
         <v>2.5</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU297" t="n">
         <v>1.82</v>
@@ -60991,7 +60991,7 @@
         <v>1.44</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU298" t="n">
         <v>1.4</v>
@@ -63221,7 +63221,7 @@
         <v>0.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT309" t="n">
         <v>0.67</v>
@@ -63424,7 +63424,7 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT310" t="n">
         <v>1.11</v>
@@ -63627,7 +63627,7 @@
         <v>1.2</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT311" t="n">
         <v>1</v>
@@ -63833,7 +63833,7 @@
         <v>1.33</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU312" t="n">
         <v>1.62</v>
@@ -64239,7 +64239,7 @@
         <v>1.83</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU314" t="n">
         <v>1.61</v>
@@ -64645,7 +64645,7 @@
         <v>1.89</v>
       </c>
       <c r="AT316" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU316" t="n">
         <v>1.24</v>
@@ -65660,7 +65660,7 @@
         <v>1.06</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU321" t="n">
         <v>1.38</v>
@@ -67281,7 +67281,7 @@
         <v>1.13</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT329" t="n">
         <v>1</v>
@@ -67484,7 +67484,7 @@
         <v>0.5</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT330" t="n">
         <v>0.44</v>
@@ -68096,7 +68096,7 @@
         <v>1.33</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="AU333" t="n">
         <v>1.62</v>
@@ -68299,7 +68299,7 @@
         <v>1.61</v>
       </c>
       <c r="AT334" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AU334" t="n">
         <v>1.77</v>
@@ -68502,7 +68502,7 @@
         <v>2.11</v>
       </c>
       <c r="AT335" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU335" t="n">
         <v>1.71</v>
@@ -68908,7 +68908,7 @@
         <v>1.72</v>
       </c>
       <c r="AT337" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU337" t="n">
         <v>1.6</v>
@@ -69311,7 +69311,7 @@
         <v>0.88</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT339" t="n">
         <v>0.9399999999999999</v>
@@ -73020,6 +73020,818 @@
       </c>
       <c r="BK357" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2435552</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>0</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>6</v>
+      </c>
+      <c r="R358" t="n">
+        <v>3</v>
+      </c>
+      <c r="S358" t="n">
+        <v>9</v>
+      </c>
+      <c r="T358" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V358" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2435551</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>1</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1</v>
+      </c>
+      <c r="K359" t="n">
+        <v>2</v>
+      </c>
+      <c r="L359" t="n">
+        <v>3</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>4</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['36', '50', '90+2']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="n">
+        <v>11</v>
+      </c>
+      <c r="S359" t="n">
+        <v>11</v>
+      </c>
+      <c r="T359" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V359" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X359" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2435549</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F360" t="n">
+        <v>36</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>2</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>2</v>
+      </c>
+      <c r="L360" t="n">
+        <v>4</v>
+      </c>
+      <c r="M360" t="n">
+        <v>2</v>
+      </c>
+      <c r="N360" t="n">
+        <v>6</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>['19', '36', '61', '73']</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['51', '76']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>7</v>
+      </c>
+      <c r="R360" t="n">
+        <v>1</v>
+      </c>
+      <c r="S360" t="n">
+        <v>8</v>
+      </c>
+      <c r="T360" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U360" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V360" t="n">
+        <v>3</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X360" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2435550</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F361" t="n">
+        <v>36</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>1</v>
+      </c>
+      <c r="K361" t="n">
+        <v>1</v>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="n">
+        <v>1</v>
+      </c>
+      <c r="N361" t="n">
+        <v>2</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>3</v>
+      </c>
+      <c r="R361" t="n">
+        <v>3</v>
+      </c>
+      <c r="S361" t="n">
+        <v>6</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V361" t="n">
+        <v>5</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X361" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eerste Divisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK371"/>
+  <dimension ref="A1:BK381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.26</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT3" t="n">
         <v>0.95</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT14" t="n">
         <v>1.05</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.79</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.26</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT19" t="n">
         <v>1.95</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT20" t="n">
         <v>0.68</v>
@@ -4760,7 +4760,7 @@
         <v>2.21</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.74</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5369,7 +5369,7 @@
         <v>2.21</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT25" t="n">
         <v>0.42</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU27" t="n">
         <v>1.93</v>
@@ -6181,7 +6181,7 @@
         <v>1.32</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.38</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT30" t="n">
         <v>1.89</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT31" t="n">
         <v>1.95</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT33" t="n">
         <v>0.95</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU34" t="n">
         <v>1.85</v>
@@ -7602,7 +7602,7 @@
         <v>1.11</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU35" t="n">
         <v>1.28</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT36" t="n">
         <v>0.68</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8414,7 +8414,7 @@
         <v>1.26</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU39" t="n">
         <v>2.25</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU40" t="n">
         <v>1.13</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU41" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT42" t="n">
         <v>1.05</v>
@@ -9429,7 +9429,7 @@
         <v>1.26</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT45" t="n">
         <v>1.89</v>
@@ -9835,7 +9835,7 @@
         <v>1.74</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10038,7 +10038,7 @@
         <v>2.16</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU47" t="n">
         <v>1.64</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT51" t="n">
         <v>0.68</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT52" t="n">
         <v>0.95</v>
@@ -11256,7 +11256,7 @@
         <v>2.47</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU53" t="n">
         <v>1.72</v>
@@ -11459,7 +11459,7 @@
         <v>1.11</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU54" t="n">
         <v>1.16</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU55" t="n">
         <v>2.1</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT56" t="n">
         <v>0.95</v>
@@ -12068,7 +12068,7 @@
         <v>1.79</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>0.95</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU58" t="n">
         <v>0.9</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT59" t="n">
         <v>1.26</v>
@@ -12877,10 +12877,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU61" t="n">
         <v>1.83</v>
@@ -13083,7 +13083,7 @@
         <v>1.37</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,10 +13283,10 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU63" t="n">
         <v>1.43</v>
@@ -13486,10 +13486,10 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>2.22</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU65" t="n">
         <v>1.2</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT66" t="n">
         <v>1.05</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT68" t="n">
         <v>1.95</v>
@@ -14910,7 +14910,7 @@
         <v>2.47</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU71" t="n">
         <v>1.81</v>
@@ -15113,7 +15113,7 @@
         <v>2.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU72" t="n">
         <v>1.54</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT73" t="n">
         <v>0.68</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT74" t="n">
         <v>1.89</v>
@@ -16128,7 +16128,7 @@
         <v>1.26</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU77" t="n">
         <v>1.72</v>
@@ -16328,10 +16328,10 @@
         <v>0.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.13</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT79" t="n">
         <v>0.95</v>
@@ -16737,7 +16737,7 @@
         <v>1.11</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU80" t="n">
         <v>1.12</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT82" t="n">
         <v>0.42</v>
@@ -17346,7 +17346,7 @@
         <v>2.47</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17549,7 +17549,7 @@
         <v>1.74</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU84" t="n">
         <v>1.43</v>
@@ -17752,7 +17752,7 @@
         <v>2.21</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU85" t="n">
         <v>1.43</v>
@@ -17952,10 +17952,10 @@
         <v>0.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU86" t="n">
         <v>1.26</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT90" t="n">
         <v>0.95</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT91" t="n">
         <v>1.05</v>
@@ -19170,10 +19170,10 @@
         <v>2.25</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU92" t="n">
         <v>1.7</v>
@@ -19373,7 +19373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT93" t="n">
         <v>1.26</v>
@@ -19579,7 +19579,7 @@
         <v>2.16</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU94" t="n">
         <v>1.95</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT95" t="n">
         <v>1.89</v>
@@ -19985,7 +19985,7 @@
         <v>1.11</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU96" t="n">
         <v>1.16</v>
@@ -20188,7 +20188,7 @@
         <v>1.26</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU97" t="n">
         <v>2.26</v>
@@ -20388,10 +20388,10 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU98" t="n">
         <v>1.15</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT100" t="n">
         <v>1.05</v>
@@ -20997,10 +20997,10 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU101" t="n">
         <v>2.07</v>
@@ -21609,7 +21609,7 @@
         <v>1.74</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU104" t="n">
         <v>1.47</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT106" t="n">
         <v>0.95</v>
@@ -22215,7 +22215,7 @@
         <v>0.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT107" t="n">
         <v>0.42</v>
@@ -22421,7 +22421,7 @@
         <v>1.79</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU108" t="n">
         <v>1.24</v>
@@ -22824,10 +22824,10 @@
         <v>0.4</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU111" t="n">
         <v>1.34</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU113" t="n">
         <v>1.88</v>
@@ -24042,10 +24042,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24248,7 +24248,7 @@
         <v>2.21</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU117" t="n">
         <v>1.31</v>
@@ -24448,10 +24448,10 @@
         <v>2.4</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24651,7 +24651,7 @@
         <v>0.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT119" t="n">
         <v>0.95</v>
@@ -24857,7 +24857,7 @@
         <v>1.37</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -25057,7 +25057,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
         <v>1.26</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT123" t="n">
         <v>1.95</v>
@@ -25669,7 +25669,7 @@
         <v>1.26</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU124" t="n">
         <v>1.59</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU126" t="n">
         <v>1.8</v>
@@ -26275,10 +26275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU127" t="n">
         <v>1.35</v>
@@ -26481,7 +26481,7 @@
         <v>2.47</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU128" t="n">
         <v>1.72</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT129" t="n">
         <v>0.42</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT130" t="n">
         <v>0.68</v>
@@ -27090,7 +27090,7 @@
         <v>1.37</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU131" t="n">
         <v>1.42</v>
@@ -27293,7 +27293,7 @@
         <v>1.11</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -28308,7 +28308,7 @@
         <v>1.26</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU137" t="n">
         <v>1.95</v>
@@ -28508,10 +28508,10 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU138" t="n">
         <v>1.27</v>
@@ -28711,10 +28711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU139" t="n">
         <v>1.46</v>
@@ -28914,7 +28914,7 @@
         <v>1.17</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT140" t="n">
         <v>1.89</v>
@@ -29117,7 +29117,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT141" t="n">
         <v>0.95</v>
@@ -29320,10 +29320,10 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU142" t="n">
         <v>1.91</v>
@@ -29523,7 +29523,7 @@
         <v>1.14</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT143" t="n">
         <v>0.95</v>
@@ -29729,7 +29729,7 @@
         <v>2.47</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU144" t="n">
         <v>1.79</v>
@@ -29929,10 +29929,10 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU145" t="n">
         <v>1.37</v>
@@ -30135,7 +30135,7 @@
         <v>1.32</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30335,7 +30335,7 @@
         <v>0.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT147" t="n">
         <v>0.95</v>
@@ -30538,7 +30538,7 @@
         <v>0.86</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT148" t="n">
         <v>0.68</v>
@@ -30744,7 +30744,7 @@
         <v>1.37</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU149" t="n">
         <v>1.31</v>
@@ -30944,10 +30944,10 @@
         <v>1.67</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU150" t="n">
         <v>1.4</v>
@@ -31350,7 +31350,7 @@
         <v>0.14</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT152" t="n">
         <v>0.42</v>
@@ -31553,10 +31553,10 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU153" t="n">
         <v>1.89</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT155" t="n">
         <v>1.05</v>
@@ -32165,7 +32165,7 @@
         <v>1.26</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU156" t="n">
         <v>1.56</v>
@@ -32365,10 +32365,10 @@
         <v>0.86</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU157" t="n">
         <v>1.97</v>
@@ -32774,7 +32774,7 @@
         <v>1.74</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -32974,10 +32974,10 @@
         <v>1.5</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU160" t="n">
         <v>1.27</v>
@@ -33180,7 +33180,7 @@
         <v>2.16</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU161" t="n">
         <v>1.75</v>
@@ -33383,7 +33383,7 @@
         <v>1.32</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33583,7 +33583,7 @@
         <v>1.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT163" t="n">
         <v>1.95</v>
@@ -33989,10 +33989,10 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34395,10 +34395,10 @@
         <v>1.38</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU167" t="n">
         <v>1.85</v>
@@ -34598,10 +34598,10 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU168" t="n">
         <v>1.43</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT169" t="n">
         <v>0.95</v>
@@ -35207,10 +35207,10 @@
         <v>1.13</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU171" t="n">
         <v>1.26</v>
@@ -35616,7 +35616,7 @@
         <v>1.26</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU173" t="n">
         <v>1.9</v>
@@ -35819,7 +35819,7 @@
         <v>1.79</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU174" t="n">
         <v>1.2</v>
@@ -36019,10 +36019,10 @@
         <v>1.44</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU175" t="n">
         <v>1.77</v>
@@ -36222,10 +36222,10 @@
         <v>0.88</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU176" t="n">
         <v>1.35</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT177" t="n">
         <v>0.68</v>
@@ -37643,10 +37643,10 @@
         <v>0.89</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU183" t="n">
         <v>1.31</v>
@@ -38049,7 +38049,7 @@
         <v>2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT185" t="n">
         <v>1.95</v>
@@ -38255,7 +38255,7 @@
         <v>1.37</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT188" t="n">
         <v>1.05</v>
@@ -38861,7 +38861,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT189" t="n">
         <v>1.05</v>
@@ -39064,10 +39064,10 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -39267,10 +39267,10 @@
         <v>1.11</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU191" t="n">
         <v>1.47</v>
@@ -39473,7 +39473,7 @@
         <v>1.26</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU192" t="n">
         <v>1.86</v>
@@ -39673,10 +39673,10 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU193" t="n">
         <v>1.72</v>
@@ -39876,10 +39876,10 @@
         <v>1.6</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU194" t="n">
         <v>1.53</v>
@@ -40079,10 +40079,10 @@
         <v>2.63</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU195" t="n">
         <v>1.84</v>
@@ -40485,7 +40485,7 @@
         <v>0.9</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT197" t="n">
         <v>0.68</v>
@@ -40691,7 +40691,7 @@
         <v>1.79</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU198" t="n">
         <v>1.23</v>
@@ -40891,7 +40891,7 @@
         <v>0.89</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT199" t="n">
         <v>1.05</v>
@@ -41300,7 +41300,7 @@
         <v>2.47</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU201" t="n">
         <v>1.87</v>
@@ -41503,7 +41503,7 @@
         <v>1.11</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU202" t="n">
         <v>1.21</v>
@@ -41703,7 +41703,7 @@
         <v>1.11</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT203" t="n">
         <v>1.26</v>
@@ -42109,7 +42109,7 @@
         <v>0.7</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT205" t="n">
         <v>0.95</v>
@@ -42515,10 +42515,10 @@
         <v>1.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42718,10 +42718,10 @@
         <v>1.11</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU208" t="n">
         <v>1.44</v>
@@ -42921,7 +42921,7 @@
         <v>1.3</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT209" t="n">
         <v>1.89</v>
@@ -43127,7 +43127,7 @@
         <v>2.47</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU210" t="n">
         <v>1.92</v>
@@ -43330,7 +43330,7 @@
         <v>1.32</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU211" t="n">
         <v>1.32</v>
@@ -43530,7 +43530,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT212" t="n">
         <v>0.68</v>
@@ -43939,7 +43939,7 @@
         <v>1.26</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU214" t="n">
         <v>1.46</v>
@@ -44342,10 +44342,10 @@
         <v>1</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU216" t="n">
         <v>1.46</v>
@@ -44545,10 +44545,10 @@
         <v>2.67</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU217" t="n">
         <v>1.73</v>
@@ -44748,10 +44748,10 @@
         <v>1.45</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU218" t="n">
         <v>1.24</v>
@@ -44951,7 +44951,7 @@
         <v>0.9</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT219" t="n">
         <v>1.05</v>
@@ -45154,10 +45154,10 @@
         <v>2</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU220" t="n">
         <v>1.86</v>
@@ -45560,7 +45560,7 @@
         <v>0.73</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT222" t="n">
         <v>0.42</v>
@@ -45763,7 +45763,7 @@
         <v>1.1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT223" t="n">
         <v>1.26</v>
@@ -45969,7 +45969,7 @@
         <v>1.11</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU224" t="n">
         <v>1.25</v>
@@ -46169,7 +46169,7 @@
         <v>1</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT225" t="n">
         <v>0.95</v>
@@ -46375,7 +46375,7 @@
         <v>1.26</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU226" t="n">
         <v>1.92</v>
@@ -46575,10 +46575,10 @@
         <v>1.5</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU227" t="n">
         <v>1.28</v>
@@ -46778,10 +46778,10 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU228" t="n">
         <v>1.68</v>
@@ -46984,7 +46984,7 @@
         <v>2.16</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU229" t="n">
         <v>1.74</v>
@@ -47187,7 +47187,7 @@
         <v>1.37</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU230" t="n">
         <v>1.44</v>
@@ -47593,7 +47593,7 @@
         <v>1.26</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU232" t="n">
         <v>1.45</v>
@@ -47996,7 +47996,7 @@
         <v>1.27</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT234" t="n">
         <v>0.95</v>
@@ -48202,7 +48202,7 @@
         <v>2.21</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU235" t="n">
         <v>1.33</v>
@@ -49011,7 +49011,7 @@
         <v>1.27</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT239" t="n">
         <v>1.26</v>
@@ -49214,10 +49214,10 @@
         <v>1.09</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU240" t="n">
         <v>1.26</v>
@@ -49623,7 +49623,7 @@
         <v>1.26</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU242" t="n">
         <v>1.88</v>
@@ -49823,7 +49823,7 @@
         <v>0.67</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT243" t="n">
         <v>0.95</v>
@@ -50026,10 +50026,10 @@
         <v>1.83</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU244" t="n">
         <v>1.32</v>
@@ -50229,10 +50229,10 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU245" t="n">
         <v>1.87</v>
@@ -50432,7 +50432,7 @@
         <v>1.17</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT246" t="n">
         <v>0.95</v>
@@ -50638,7 +50638,7 @@
         <v>1.11</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU247" t="n">
         <v>1.31</v>
@@ -50838,10 +50838,10 @@
         <v>0.64</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU248" t="n">
         <v>1.87</v>
@@ -51041,7 +51041,7 @@
         <v>1.17</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT249" t="n">
         <v>0.95</v>
@@ -51247,7 +51247,7 @@
         <v>1.37</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU250" t="n">
         <v>1.37</v>
@@ -51447,10 +51447,10 @@
         <v>1.17</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU251" t="n">
         <v>1.43</v>
@@ -51653,7 +51653,7 @@
         <v>2.16</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU252" t="n">
         <v>1.75</v>
@@ -51856,7 +51856,7 @@
         <v>1.32</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU253" t="n">
         <v>1.35</v>
@@ -52056,7 +52056,7 @@
         <v>1.58</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT254" t="n">
         <v>1.89</v>
@@ -52259,7 +52259,7 @@
         <v>1.42</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT255" t="n">
         <v>1.26</v>
@@ -52462,7 +52462,7 @@
         <v>0.67</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT256" t="n">
         <v>0.42</v>
@@ -53074,7 +53074,7 @@
         <v>1.26</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU259" t="n">
         <v>1.49</v>
@@ -53274,7 +53274,7 @@
         <v>1.08</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT260" t="n">
         <v>1.05</v>
@@ -53480,7 +53480,7 @@
         <v>2.21</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU261" t="n">
         <v>1.29</v>
@@ -53680,10 +53680,10 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU262" t="n">
         <v>1.41</v>
@@ -53883,7 +53883,7 @@
         <v>1.69</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT263" t="n">
         <v>1.89</v>
@@ -54089,7 +54089,7 @@
         <v>2.21</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU264" t="n">
         <v>1.27</v>
@@ -54292,7 +54292,7 @@
         <v>2.47</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU265" t="n">
         <v>2.01</v>
@@ -54492,7 +54492,7 @@
         <v>1.08</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT266" t="n">
         <v>0.95</v>
@@ -54695,10 +54695,10 @@
         <v>1.08</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU267" t="n">
         <v>1.35</v>
@@ -54898,10 +54898,10 @@
         <v>1.31</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU268" t="n">
         <v>1.83</v>
@@ -55104,7 +55104,7 @@
         <v>1.37</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU269" t="n">
         <v>1.42</v>
@@ -55304,7 +55304,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT270" t="n">
         <v>0.95</v>
@@ -55713,7 +55713,7 @@
         <v>2.16</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU272" t="n">
         <v>1.74</v>
@@ -55916,7 +55916,7 @@
         <v>1.32</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU273" t="n">
         <v>1.45</v>
@@ -56119,7 +56119,7 @@
         <v>1.11</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU274" t="n">
         <v>1.32</v>
@@ -56322,7 +56322,7 @@
         <v>1.74</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU275" t="n">
         <v>1.58</v>
@@ -56522,7 +56522,7 @@
         <v>1.31</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT276" t="n">
         <v>1.26</v>
@@ -56725,7 +56725,7 @@
         <v>1.15</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT277" t="n">
         <v>0.95</v>
@@ -56931,7 +56931,7 @@
         <v>1.79</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU278" t="n">
         <v>1.19</v>
@@ -57131,7 +57131,7 @@
         <v>1</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT279" t="n">
         <v>1.05</v>
@@ -57334,7 +57334,7 @@
         <v>1.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT280" t="n">
         <v>1.05</v>
@@ -57537,10 +57537,10 @@
         <v>2.21</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU281" t="n">
         <v>1.84</v>
@@ -57740,7 +57740,7 @@
         <v>1.07</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT282" t="n">
         <v>0.95</v>
@@ -57943,7 +57943,7 @@
         <v>1</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT283" t="n">
         <v>1.05</v>
@@ -58146,10 +58146,10 @@
         <v>2</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU284" t="n">
         <v>1.48</v>
@@ -58352,7 +58352,7 @@
         <v>1.79</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU285" t="n">
         <v>1.24</v>
@@ -58555,7 +58555,7 @@
         <v>1.74</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU286" t="n">
         <v>1.62</v>
@@ -58755,7 +58755,7 @@
         <v>1.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT287" t="n">
         <v>1.26</v>
@@ -59164,7 +59164,7 @@
         <v>1.26</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU289" t="n">
         <v>1.79</v>
@@ -59364,7 +59364,7 @@
         <v>1.14</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT290" t="n">
         <v>1.05</v>
@@ -59973,10 +59973,10 @@
         <v>1.29</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU293" t="n">
         <v>1.83</v>
@@ -60179,7 +60179,7 @@
         <v>2.47</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU294" t="n">
         <v>2.08</v>
@@ -60785,10 +60785,10 @@
         <v>0.5</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU297" t="n">
         <v>1.82</v>
@@ -60988,10 +60988,10 @@
         <v>1</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU298" t="n">
         <v>1.4</v>
@@ -61191,7 +61191,7 @@
         <v>0.64</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT299" t="n">
         <v>0.95</v>
@@ -61397,7 +61397,7 @@
         <v>2.16</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU300" t="n">
         <v>1.75</v>
@@ -61600,7 +61600,7 @@
         <v>1.32</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU301" t="n">
         <v>1.5</v>
@@ -62006,7 +62006,7 @@
         <v>2.21</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU303" t="n">
         <v>1.3</v>
@@ -62612,7 +62612,7 @@
         <v>1.87</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT306" t="n">
         <v>1.89</v>
@@ -62818,7 +62818,7 @@
         <v>1.26</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU307" t="n">
         <v>1.47</v>
@@ -63018,7 +63018,7 @@
         <v>0.53</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT308" t="n">
         <v>0.42</v>
@@ -63424,7 +63424,7 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT310" t="n">
         <v>1.05</v>
@@ -63627,7 +63627,7 @@
         <v>1.2</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT311" t="n">
         <v>0.95</v>
@@ -63830,10 +63830,10 @@
         <v>1.33</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU312" t="n">
         <v>1.62</v>
@@ -64033,10 +64033,10 @@
         <v>0.93</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU313" t="n">
         <v>1.42</v>
@@ -64239,7 +64239,7 @@
         <v>1.74</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU314" t="n">
         <v>1.61</v>
@@ -64439,10 +64439,10 @@
         <v>0.73</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU315" t="n">
         <v>1.44</v>
@@ -64645,7 +64645,7 @@
         <v>1.79</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU316" t="n">
         <v>1.24</v>
@@ -64845,7 +64845,7 @@
         <v>1.2</v>
       </c>
       <c r="AS317" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT317" t="n">
         <v>0.95</v>
@@ -65048,7 +65048,7 @@
         <v>0.93</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT318" t="n">
         <v>1.05</v>
@@ -65251,7 +65251,7 @@
         <v>1.87</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT319" t="n">
         <v>1.95</v>
@@ -65457,7 +65457,7 @@
         <v>2.16</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU320" t="n">
         <v>1.7</v>
@@ -65657,10 +65657,10 @@
         <v>0.93</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU321" t="n">
         <v>1.38</v>
@@ -66063,7 +66063,7 @@
         <v>1.13</v>
       </c>
       <c r="AS323" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT323" t="n">
         <v>0.95</v>
@@ -66878,7 +66878,7 @@
         <v>1.32</v>
       </c>
       <c r="AT327" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU327" t="n">
         <v>1.5</v>
@@ -67484,7 +67484,7 @@
         <v>0.5</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT330" t="n">
         <v>0.42</v>
@@ -67687,7 +67687,7 @@
         <v>1.75</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT331" t="n">
         <v>1.95</v>
@@ -67890,10 +67890,10 @@
         <v>1.94</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU332" t="n">
         <v>1.48</v>
@@ -68093,10 +68093,10 @@
         <v>0.44</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU333" t="n">
         <v>1.62</v>
@@ -68296,10 +68296,10 @@
         <v>1.31</v>
       </c>
       <c r="AS334" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT334" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU334" t="n">
         <v>1.77</v>
@@ -68502,7 +68502,7 @@
         <v>2.16</v>
       </c>
       <c r="AT335" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU335" t="n">
         <v>1.71</v>
@@ -68702,7 +68702,7 @@
         <v>0.88</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT336" t="n">
         <v>1.05</v>
@@ -68905,10 +68905,10 @@
         <v>2.13</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT337" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU337" t="n">
         <v>1.6</v>
@@ -69111,7 +69111,7 @@
         <v>1.79</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU338" t="n">
         <v>1.25</v>
@@ -69311,10 +69311,10 @@
         <v>0.88</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT339" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU339" t="n">
         <v>1.42</v>
@@ -69514,10 +69514,10 @@
         <v>1.06</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT340" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU340" t="n">
         <v>1.44</v>
@@ -69720,7 +69720,7 @@
         <v>1.74</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU341" t="n">
         <v>1.66</v>
@@ -69923,7 +69923,7 @@
         <v>1.32</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU342" t="n">
         <v>1.48</v>
@@ -71341,7 +71341,7 @@
         <v>1.06</v>
       </c>
       <c r="AS349" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AT349" t="n">
         <v>0.95</v>
@@ -71950,7 +71950,7 @@
         <v>1.82</v>
       </c>
       <c r="AS352" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT352" t="n">
         <v>1.95</v>
@@ -72153,10 +72153,10 @@
         <v>1</v>
       </c>
       <c r="AS353" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT353" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU353" t="n">
         <v>1.76</v>
@@ -72356,10 +72356,10 @@
         <v>1.82</v>
       </c>
       <c r="AS354" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AT354" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AU354" t="n">
         <v>1.4</v>
@@ -72559,10 +72559,10 @@
         <v>1.18</v>
       </c>
       <c r="AS355" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT355" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU355" t="n">
         <v>1.64</v>
@@ -72762,10 +72762,10 @@
         <v>1.47</v>
       </c>
       <c r="AS356" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT356" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU356" t="n">
         <v>1.48</v>
@@ -72965,10 +72965,10 @@
         <v>1.35</v>
       </c>
       <c r="AS357" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT357" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AU357" t="n">
         <v>1.57</v>
@@ -73168,10 +73168,10 @@
         <v>0.59</v>
       </c>
       <c r="AS358" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT358" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU358" t="n">
         <v>1.43</v>
@@ -73371,10 +73371,10 @@
         <v>2.06</v>
       </c>
       <c r="AS359" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT359" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU359" t="n">
         <v>1.45</v>
@@ -73577,7 +73577,7 @@
         <v>1.37</v>
       </c>
       <c r="AT360" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AU360" t="n">
         <v>1.5</v>
@@ -73777,10 +73777,10 @@
         <v>0.82</v>
       </c>
       <c r="AS361" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT361" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU361" t="n">
         <v>1.86</v>
@@ -75862,6 +75862,2036 @@
       </c>
       <c r="BK371" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2435570</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F372" t="n">
+        <v>38</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>1</v>
+      </c>
+      <c r="J372" t="n">
+        <v>1</v>
+      </c>
+      <c r="K372" t="n">
+        <v>2</v>
+      </c>
+      <c r="L372" t="n">
+        <v>2</v>
+      </c>
+      <c r="M372" t="n">
+        <v>2</v>
+      </c>
+      <c r="N372" t="n">
+        <v>4</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>['13', '49']</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>['44', '50']</t>
+        </is>
+      </c>
+      <c r="Q372" t="n">
+        <v>3</v>
+      </c>
+      <c r="R372" t="n">
+        <v>8</v>
+      </c>
+      <c r="S372" t="n">
+        <v>11</v>
+      </c>
+      <c r="T372" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U372" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V372" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W372" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X372" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB372" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC372" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD372" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE372" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF372" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG372" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH372" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI372" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ372" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK372" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL372" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM372" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN372" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO372" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP372" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ372" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR372" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS372" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT372" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU372" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV372" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW372" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX372" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY372" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ372" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA372" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB372" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC372" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD372" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE372" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF372" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG372" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH372" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI372" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ372" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK372" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2435569</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F373" t="n">
+        <v>38</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>PSV II</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="n">
+        <v>1</v>
+      </c>
+      <c r="N373" t="n">
+        <v>2</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q373" t="n">
+        <v>4</v>
+      </c>
+      <c r="R373" t="n">
+        <v>5</v>
+      </c>
+      <c r="S373" t="n">
+        <v>9</v>
+      </c>
+      <c r="T373" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U373" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V373" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W373" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X373" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB373" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC373" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD373" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE373" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF373" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG373" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH373" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI373" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ373" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK373" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL373" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM373" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN373" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO373" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP373" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ373" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR373" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS373" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT373" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AU373" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV373" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW373" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX373" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY373" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ373" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA373" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB373" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC373" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD373" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF373" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG373" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH373" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI373" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ373" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK373" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2435568</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F374" t="n">
+        <v>38</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Ajax II</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>1</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
+      <c r="L374" t="n">
+        <v>2</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>2</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>['23', '71']</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q374" t="n">
+        <v>8</v>
+      </c>
+      <c r="R374" t="n">
+        <v>5</v>
+      </c>
+      <c r="S374" t="n">
+        <v>13</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U374" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V374" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W374" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X374" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD374" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE374" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF374" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG374" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH374" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AI374" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ374" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AK374" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL374" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM374" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN374" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO374" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP374" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ374" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR374" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS374" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AT374" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU374" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV374" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW374" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX374" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY374" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA374" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB374" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC374" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD374" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE374" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF374" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG374" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH374" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI374" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ374" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK374" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2435567</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F375" t="n">
+        <v>38</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>PEC Zwolle</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>2</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1</v>
+      </c>
+      <c r="K375" t="n">
+        <v>3</v>
+      </c>
+      <c r="L375" t="n">
+        <v>2</v>
+      </c>
+      <c r="M375" t="n">
+        <v>3</v>
+      </c>
+      <c r="N375" t="n">
+        <v>5</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>['20', '45']</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>['17', '57', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q375" t="n">
+        <v>2</v>
+      </c>
+      <c r="R375" t="n">
+        <v>7</v>
+      </c>
+      <c r="S375" t="n">
+        <v>9</v>
+      </c>
+      <c r="T375" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U375" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V375" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W375" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X375" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD375" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE375" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF375" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG375" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH375" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI375" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ375" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK375" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AL375" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM375" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN375" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO375" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP375" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ375" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR375" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS375" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT375" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU375" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV375" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW375" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX375" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY375" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ375" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA375" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB375" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC375" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD375" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE375" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF375" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG375" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH375" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI375" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ375" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK375" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2435571</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F376" t="n">
+        <v>38</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" t="n">
+        <v>1</v>
+      </c>
+      <c r="K376" t="n">
+        <v>1</v>
+      </c>
+      <c r="L376" t="n">
+        <v>2</v>
+      </c>
+      <c r="M376" t="n">
+        <v>1</v>
+      </c>
+      <c r="N376" t="n">
+        <v>3</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>['90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q376" t="n">
+        <v>8</v>
+      </c>
+      <c r="R376" t="n">
+        <v>5</v>
+      </c>
+      <c r="S376" t="n">
+        <v>13</v>
+      </c>
+      <c r="T376" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U376" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V376" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W376" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X376" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG376" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH376" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ376" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK376" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL376" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN376" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO376" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP376" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ376" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR376" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS376" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT376" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AU376" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW376" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX376" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY376" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ376" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA376" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB376" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC376" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD376" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE376" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF376" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG376" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH376" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI376" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ376" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK376" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2435565</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F377" t="n">
+        <v>38</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Oss</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>1</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0</v>
+      </c>
+      <c r="K377" t="n">
+        <v>1</v>
+      </c>
+      <c r="L377" t="n">
+        <v>2</v>
+      </c>
+      <c r="M377" t="n">
+        <v>2</v>
+      </c>
+      <c r="N377" t="n">
+        <v>4</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>['40', '73']</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>['58', '66']</t>
+        </is>
+      </c>
+      <c r="Q377" t="n">
+        <v>5</v>
+      </c>
+      <c r="R377" t="n">
+        <v>9</v>
+      </c>
+      <c r="S377" t="n">
+        <v>14</v>
+      </c>
+      <c r="T377" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U377" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V377" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W377" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X377" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB377" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC377" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD377" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE377" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AF377" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG377" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH377" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI377" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ377" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK377" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL377" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN377" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO377" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP377" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ377" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR377" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS377" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT377" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU377" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV377" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW377" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX377" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY377" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ377" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA377" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB377" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC377" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD377" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE377" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF377" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG377" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH377" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI377" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ377" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK377" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2435564</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F378" t="n">
+        <v>38</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>AZ II</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>0</v>
+      </c>
+      <c r="J378" t="n">
+        <v>1</v>
+      </c>
+      <c r="K378" t="n">
+        <v>1</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>2</v>
+      </c>
+      <c r="N378" t="n">
+        <v>2</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>['32', '89']</t>
+        </is>
+      </c>
+      <c r="Q378" t="n">
+        <v>6</v>
+      </c>
+      <c r="R378" t="n">
+        <v>5</v>
+      </c>
+      <c r="S378" t="n">
+        <v>11</v>
+      </c>
+      <c r="T378" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U378" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V378" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W378" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X378" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD378" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE378" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AF378" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG378" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH378" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AJ378" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK378" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL378" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN378" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO378" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP378" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ378" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR378" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS378" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT378" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU378" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV378" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW378" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ378" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA378" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB378" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC378" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD378" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE378" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF378" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG378" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH378" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI378" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ378" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK378" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2435563</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E379" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F379" t="n">
+        <v>38</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>0</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" t="n">
+        <v>1</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q379" t="n">
+        <v>2</v>
+      </c>
+      <c r="R379" t="n">
+        <v>4</v>
+      </c>
+      <c r="S379" t="n">
+        <v>6</v>
+      </c>
+      <c r="T379" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U379" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V379" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W379" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X379" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD379" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE379" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF379" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG379" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH379" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI379" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AJ379" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK379" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL379" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM379" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN379" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO379" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP379" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ379" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR379" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS379" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT379" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU379" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV379" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW379" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX379" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY379" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ379" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA379" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB379" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC379" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD379" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE379" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF379" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG379" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH379" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI379" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ379" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK379" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2435566</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E380" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F380" t="n">
+        <v>38</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>2</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K380" t="n">
+        <v>2</v>
+      </c>
+      <c r="L380" t="n">
+        <v>3</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>3</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>['15', '37', '87']</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q380" t="n">
+        <v>4</v>
+      </c>
+      <c r="R380" t="n">
+        <v>2</v>
+      </c>
+      <c r="S380" t="n">
+        <v>6</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U380" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V380" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="W380" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X380" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB380" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC380" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD380" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE380" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF380" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG380" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH380" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI380" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ380" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK380" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL380" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM380" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN380" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO380" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP380" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AQ380" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR380" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS380" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT380" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU380" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV380" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW380" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX380" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AY380" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ380" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BA380" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB380" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC380" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD380" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE380" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF380" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG380" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH380" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI380" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ380" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK380" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2435572</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Netherlands Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E381" s="2" t="n">
+        <v>45065.625</v>
+      </c>
+      <c r="F381" t="n">
+        <v>38</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>VVV</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1</v>
+      </c>
+      <c r="K381" t="n">
+        <v>1</v>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="n">
+        <v>1</v>
+      </c>
+      <c r="N381" t="n">
+        <v>2</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q381" t="n">
+        <v>4</v>
+      </c>
+      <c r="R381" t="n">
+        <v>7</v>
+      </c>
+      <c r="S381" t="n">
+        <v>11</v>
+      </c>
+      <c r="T381" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U381" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V381" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W381" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X381" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG381" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH381" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ381" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK381" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL381" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN381" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO381" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP381" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ381" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR381" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS381" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT381" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AU381" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW381" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY381" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ381" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA381" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB381" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC381" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD381" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE381" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF381" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG381" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH381" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI381" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ381" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK381" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
